--- a/MATLAB & Simulink Files/GradientProfile.xlsx
+++ b/MATLAB & Simulink Files/GradientProfile.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Università\CSAGV\Challenge 2022\MATLAB &amp; Simulink Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Università\MAGISTRALE\CSAGV\Challenge 2022\MATLAB &amp; Simulink Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8F319E-1111-4BD9-B79C-464A06372101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42EF3E62-2521-45FC-87DF-2AD9E6C533DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C65B12A1-02A2-4F66-87F4-8A52512D1661}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="20">
   <si>
     <t>Distance from Start (km)</t>
   </si>
@@ -576,11 +576,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Colore 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -936,10 +939,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5D1B49D-E9B4-4EC2-BC6D-4D30BA065B04}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1167,8 +1170,232 @@
       <c r="A26" s="1">
         <v>2160</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>2250</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>2340</v>
+      </c>
+      <c r="B28" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>2430</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>2520</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>2610</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>2700</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>2790</v>
+      </c>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <v>2880</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>2970</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
+        <v>3060</v>
+      </c>
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <v>3150</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <v>3240</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
+        <v>3330</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
+        <v>3420</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
+        <v>3510</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="4">
+        <v>3600</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="4">
+        <v>3690</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="4">
+        <v>3780</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
+        <v>3870</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="4">
+        <v>3960</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="4">
+        <v>4050</v>
+      </c>
+      <c r="B47" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="4">
+        <v>4140</v>
+      </c>
+      <c r="B48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="4">
+        <v>4230</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="4">
+        <v>4320</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="4">
+        <v>4410</v>
+      </c>
+      <c r="B51" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="4">
+        <v>4500</v>
+      </c>
+      <c r="B52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="4">
+        <v>4590</v>
+      </c>
+      <c r="B53" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="4">
+        <v>4680</v>
+      </c>
+      <c r="B54" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
